--- a/data/pca/factorExposure/factorExposure_2012-12-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-17.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>3.662424680206557e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001847747363423336</v>
+      </c>
+      <c r="C2">
+        <v>-0.03141082609672761</v>
+      </c>
+      <c r="D2">
+        <v>0.00448412122788376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0005469105979158551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006387902654571682</v>
+      </c>
+      <c r="C4">
+        <v>-0.08389610485310132</v>
+      </c>
+      <c r="D4">
+        <v>0.07772918119703423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0005096295837903696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01442214436530379</v>
+      </c>
+      <c r="C6">
+        <v>-0.113811709346153</v>
+      </c>
+      <c r="D6">
+        <v>0.0333363230939049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001604269441406973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005184543536395409</v>
+      </c>
+      <c r="C7">
+        <v>-0.05845443488956781</v>
+      </c>
+      <c r="D7">
+        <v>0.03108915710219415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0009131485071633616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005876000666145053</v>
+      </c>
+      <c r="C8">
+        <v>-0.03768638543962671</v>
+      </c>
+      <c r="D8">
+        <v>0.04024730944567541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003324528807838048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004568357640596549</v>
+      </c>
+      <c r="C9">
+        <v>-0.07035894832248211</v>
+      </c>
+      <c r="D9">
+        <v>0.07268063386882156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.003307173187312098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005439835962165536</v>
+      </c>
+      <c r="C10">
+        <v>-0.05869297340451751</v>
+      </c>
+      <c r="D10">
+        <v>-0.1974177421184096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002336094707296998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005855469698575089</v>
+      </c>
+      <c r="C11">
+        <v>-0.0795905032787161</v>
+      </c>
+      <c r="D11">
+        <v>0.05906139977076653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006986746867216953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004182794241982904</v>
+      </c>
+      <c r="C12">
+        <v>-0.06403930584145874</v>
+      </c>
+      <c r="D12">
+        <v>0.04580364231419799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002122183725226016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009100034613642229</v>
+      </c>
+      <c r="C13">
+        <v>-0.06867285551178429</v>
+      </c>
+      <c r="D13">
+        <v>0.05602016422842699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0007803310075283499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001642068722031504</v>
+      </c>
+      <c r="C14">
+        <v>-0.04541461240246403</v>
+      </c>
+      <c r="D14">
+        <v>0.003477812267545892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0006672789717700147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006125922994910812</v>
+      </c>
+      <c r="C15">
+        <v>-0.04210507175272298</v>
+      </c>
+      <c r="D15">
+        <v>0.02970298719496622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0005503431894601111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005150584245199223</v>
+      </c>
+      <c r="C16">
+        <v>-0.064918687272416</v>
+      </c>
+      <c r="D16">
+        <v>0.04861034835484666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0005116216257253583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009105331137076376</v>
+      </c>
+      <c r="C20">
+        <v>-0.06553731816259101</v>
+      </c>
+      <c r="D20">
+        <v>0.04268124843618739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005754639642225928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01004373086463301</v>
+      </c>
+      <c r="C21">
+        <v>-0.02091398706613909</v>
+      </c>
+      <c r="D21">
+        <v>0.03805354378494726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01571278178717092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006535518250567656</v>
+      </c>
+      <c r="C22">
+        <v>-0.09395216824643017</v>
+      </c>
+      <c r="D22">
+        <v>0.1111650861467468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01601057281093533</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006351195015498842</v>
+      </c>
+      <c r="C23">
+        <v>-0.09476632671516938</v>
+      </c>
+      <c r="D23">
+        <v>0.1111885565881573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001188862135764857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005615396894779147</v>
+      </c>
+      <c r="C24">
+        <v>-0.07625344753240437</v>
+      </c>
+      <c r="D24">
+        <v>0.06286385219268459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003883299171562314</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003138071176102418</v>
+      </c>
+      <c r="C25">
+        <v>-0.07835899082726004</v>
+      </c>
+      <c r="D25">
+        <v>0.0651661882100877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004398466116027878</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003739424591933666</v>
+      </c>
+      <c r="C26">
+        <v>-0.04122604696236781</v>
+      </c>
+      <c r="D26">
+        <v>0.02306590471993776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.003648630940210915</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0007712690083313024</v>
+      </c>
+      <c r="C28">
+        <v>-0.107284305146337</v>
+      </c>
+      <c r="D28">
+        <v>-0.3182091516136483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001218688880664501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003476704904862012</v>
+      </c>
+      <c r="C29">
+        <v>-0.05123358677952675</v>
+      </c>
+      <c r="D29">
+        <v>0.006594322990252695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002608589984672123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009778295210113653</v>
+      </c>
+      <c r="C30">
+        <v>-0.1416747834929347</v>
+      </c>
+      <c r="D30">
+        <v>0.1016115338938212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.001115830735697673</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006311877582205474</v>
+      </c>
+      <c r="C31">
+        <v>-0.04439826893522624</v>
+      </c>
+      <c r="D31">
+        <v>0.02866987606270904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0009936078014325602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004206689124888436</v>
+      </c>
+      <c r="C32">
+        <v>-0.03985589940336481</v>
+      </c>
+      <c r="D32">
+        <v>0.02067068741890834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002260836691074084</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008627484860934703</v>
+      </c>
+      <c r="C33">
+        <v>-0.0863965926260785</v>
+      </c>
+      <c r="D33">
+        <v>0.06390719712384887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004211085174124353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004073115522604735</v>
+      </c>
+      <c r="C34">
+        <v>-0.05793692396713108</v>
+      </c>
+      <c r="D34">
+        <v>0.05320798185804247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001100150110602936</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005066376755874223</v>
+      </c>
+      <c r="C35">
+        <v>-0.04028768477431865</v>
+      </c>
+      <c r="D35">
+        <v>0.01794528730758773</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003653155666986025</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001062711139960279</v>
+      </c>
+      <c r="C36">
+        <v>-0.02463085131309048</v>
+      </c>
+      <c r="D36">
+        <v>0.0219541031082092</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002403784969534849</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009502590286093076</v>
+      </c>
+      <c r="C38">
+        <v>-0.03412811415861701</v>
+      </c>
+      <c r="D38">
+        <v>0.01599722726540032</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01097040651558364</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003378311456559185</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156246123268314</v>
+      </c>
+      <c r="D39">
+        <v>0.07476782445809137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009255245236069232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002860432762703821</v>
+      </c>
+      <c r="C40">
+        <v>-0.09016063264485874</v>
+      </c>
+      <c r="D40">
+        <v>0.01258697734183619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>3.714515495775693e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007370558673955666</v>
+      </c>
+      <c r="C41">
+        <v>-0.0382242333884947</v>
+      </c>
+      <c r="D41">
+        <v>0.03690606925879146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002941290376971704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004185890110986999</v>
+      </c>
+      <c r="C43">
+        <v>-0.0535821538405821</v>
+      </c>
+      <c r="D43">
+        <v>0.02485328447931207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.004197344558921896</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003555448339718335</v>
+      </c>
+      <c r="C44">
+        <v>-0.1095010455192083</v>
+      </c>
+      <c r="D44">
+        <v>0.06650101210993489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001029094804072278</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002316532735126892</v>
+      </c>
+      <c r="C46">
+        <v>-0.03315781462029756</v>
+      </c>
+      <c r="D46">
+        <v>0.03455453269907759</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>6.231754317545675e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002823870553990008</v>
+      </c>
+      <c r="C47">
+        <v>-0.03761969877520402</v>
+      </c>
+      <c r="D47">
+        <v>0.02210614276338844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003865491656928259</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006762106803344693</v>
+      </c>
+      <c r="C48">
+        <v>-0.0310457946839282</v>
+      </c>
+      <c r="D48">
+        <v>0.03295327663787021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01091069712286176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01584274145197235</v>
+      </c>
+      <c r="C49">
+        <v>-0.1851474049589995</v>
+      </c>
+      <c r="D49">
+        <v>0.01611239355752354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001498425863673909</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003732425322474864</v>
+      </c>
+      <c r="C50">
+        <v>-0.04352469827186953</v>
+      </c>
+      <c r="D50">
+        <v>0.03529249557814407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0008730422147413134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004505572876531722</v>
+      </c>
+      <c r="C51">
+        <v>-0.02617756848032586</v>
+      </c>
+      <c r="D51">
+        <v>0.02025670788908199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001740547998105246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02130633407317951</v>
+      </c>
+      <c r="C53">
+        <v>-0.1698453175840704</v>
+      </c>
+      <c r="D53">
+        <v>0.0256468472458273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001288895212728487</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008868638011538242</v>
+      </c>
+      <c r="C54">
+        <v>-0.05385919016838973</v>
+      </c>
+      <c r="D54">
+        <v>0.04488865425609923</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003028623132379226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009865704652681636</v>
+      </c>
+      <c r="C55">
+        <v>-0.1093984758707608</v>
+      </c>
+      <c r="D55">
+        <v>0.03884017163417129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003449435707294063</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02043494790517595</v>
+      </c>
+      <c r="C56">
+        <v>-0.1740702596668992</v>
+      </c>
+      <c r="D56">
+        <v>0.02016064487698084</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.006444154363065868</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0196427260091022</v>
+      </c>
+      <c r="C58">
+        <v>-0.1104110244059068</v>
+      </c>
+      <c r="D58">
+        <v>0.05898377709252722</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.005217666488099402</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.0100930989845193</v>
+      </c>
+      <c r="C59">
+        <v>-0.1655049029831539</v>
+      </c>
+      <c r="D59">
+        <v>-0.327297919721262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.002973619686418926</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02456119472292465</v>
+      </c>
+      <c r="C60">
+        <v>-0.222579787557155</v>
+      </c>
+      <c r="D60">
+        <v>0.0352168748816885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01345045681435665</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001591447537285942</v>
+      </c>
+      <c r="C61">
+        <v>-0.09448467661030799</v>
+      </c>
+      <c r="D61">
+        <v>0.05452459769691025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1625069464127692</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1453128999994744</v>
+      </c>
+      <c r="C62">
+        <v>-0.09449616277219218</v>
+      </c>
+      <c r="D62">
+        <v>0.04010431146630435</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0004167656623000765</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006412032350200888</v>
+      </c>
+      <c r="C63">
+        <v>-0.05481194725622442</v>
+      </c>
+      <c r="D63">
+        <v>0.02679126514400345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0004689895888277992</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01552825897787688</v>
+      </c>
+      <c r="C64">
+        <v>-0.1052671192294549</v>
+      </c>
+      <c r="D64">
+        <v>0.05826017488793875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.003517885820091397</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0183021273101679</v>
+      </c>
+      <c r="C65">
+        <v>-0.1244447939044798</v>
+      </c>
+      <c r="D65">
+        <v>0.02611466934700039</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.006711123408832275</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01333818959762236</v>
+      </c>
+      <c r="C66">
+        <v>-0.1594011855550754</v>
+      </c>
+      <c r="D66">
+        <v>0.1106054314245206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.00387244925574856</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01572539245068761</v>
+      </c>
+      <c r="C67">
+        <v>-0.06509101178203826</v>
+      </c>
+      <c r="D67">
+        <v>0.02714684953036185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.00493234183257126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0007844173066841123</v>
+      </c>
+      <c r="C68">
+        <v>-0.08730498684814891</v>
+      </c>
+      <c r="D68">
+        <v>-0.2610046475571185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.001772350086579987</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006316605506041297</v>
+      </c>
+      <c r="C69">
+        <v>-0.05035262469359249</v>
+      </c>
+      <c r="D69">
+        <v>0.03841155293999964</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002832515612024868</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001816568423448281</v>
+      </c>
+      <c r="C70">
+        <v>-0.002694941353648275</v>
+      </c>
+      <c r="D70">
+        <v>0.0003598492463896006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0009373025279174344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005896224608712541</v>
+      </c>
+      <c r="C71">
+        <v>-0.09487516649272522</v>
+      </c>
+      <c r="D71">
+        <v>-0.3065568120083417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003169635250898216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.0165261254079738</v>
+      </c>
+      <c r="C72">
+        <v>-0.1533357187327773</v>
+      </c>
+      <c r="D72">
+        <v>0.0175542496677013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01024988432231833</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03136023884346837</v>
+      </c>
+      <c r="C73">
+        <v>-0.2793151902235956</v>
+      </c>
+      <c r="D73">
+        <v>0.0565819615848479</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004501833091333456</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002190818271161669</v>
+      </c>
+      <c r="C74">
+        <v>-0.1045822307001425</v>
+      </c>
+      <c r="D74">
+        <v>0.03572555773707303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002024446544354662</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01129094904658741</v>
+      </c>
+      <c r="C75">
+        <v>-0.1244395929093004</v>
+      </c>
+      <c r="D75">
+        <v>0.02653427734829842</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009324443050209772</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02211686129084627</v>
+      </c>
+      <c r="C76">
+        <v>-0.148525939834437</v>
+      </c>
+      <c r="D76">
+        <v>0.05841889614854333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001862466519910338</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02367631272966403</v>
+      </c>
+      <c r="C77">
+        <v>-0.1212078191908544</v>
+      </c>
+      <c r="D77">
+        <v>0.08379669469658341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001290999834703446</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0149876053681759</v>
+      </c>
+      <c r="C78">
+        <v>-0.09576621108561338</v>
+      </c>
+      <c r="D78">
+        <v>0.07190631889097995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.0238868705453663</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0380145401898936</v>
+      </c>
+      <c r="C79">
+        <v>-0.156634010279936</v>
+      </c>
+      <c r="D79">
+        <v>0.03255908364866823</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006897159609003237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01042377433527051</v>
+      </c>
+      <c r="C80">
+        <v>-0.03942930312312157</v>
+      </c>
+      <c r="D80">
+        <v>0.02927894410474785</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001106891547011819</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01562085859014765</v>
+      </c>
+      <c r="C81">
+        <v>-0.1268998053461347</v>
+      </c>
+      <c r="D81">
+        <v>0.04097094204315287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006100013449511027</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.0201719851137376</v>
+      </c>
+      <c r="C82">
+        <v>-0.1414960347239483</v>
+      </c>
+      <c r="D82">
+        <v>0.03417631932208405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008970392128186309</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01008680986975298</v>
+      </c>
+      <c r="C83">
+        <v>-0.05526700210361077</v>
+      </c>
+      <c r="D83">
+        <v>0.05464724335601093</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01360769050138599</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01168451231329138</v>
+      </c>
+      <c r="C84">
+        <v>-0.03644617727997046</v>
+      </c>
+      <c r="D84">
+        <v>-0.006241229300935699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01424681192628878</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02857098836842936</v>
+      </c>
+      <c r="C85">
+        <v>-0.1242467430374279</v>
+      </c>
+      <c r="D85">
+        <v>0.04612716267633891</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.0009572356150109524</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005901305855397871</v>
+      </c>
+      <c r="C86">
+        <v>-0.04955122581213803</v>
+      </c>
+      <c r="D86">
+        <v>0.02828713403106932</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003206790042196677</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01031520808292069</v>
+      </c>
+      <c r="C87">
+        <v>-0.1275585043023953</v>
+      </c>
+      <c r="D87">
+        <v>0.07403358977641683</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01128738901908854</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002811841245732082</v>
+      </c>
+      <c r="C88">
+        <v>-0.06490842113183667</v>
+      </c>
+      <c r="D88">
+        <v>0.01822436436750234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01183975682001774</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001001795313650537</v>
+      </c>
+      <c r="C89">
+        <v>-0.1474431521224274</v>
+      </c>
+      <c r="D89">
+        <v>-0.3325366568844438</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0007290044837089433</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007208042772659394</v>
+      </c>
+      <c r="C90">
+        <v>-0.1213759513485288</v>
+      </c>
+      <c r="D90">
+        <v>-0.3190363498815355</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0009424890081037625</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01059607794028333</v>
+      </c>
+      <c r="C91">
+        <v>-0.1003202512120666</v>
+      </c>
+      <c r="D91">
+        <v>0.02082131192473205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.006202323576463108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.00131040276685961</v>
+      </c>
+      <c r="C92">
+        <v>-0.1364304325642387</v>
+      </c>
+      <c r="D92">
+        <v>-0.3259271148608496</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001018595530161493</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005110400922063524</v>
+      </c>
+      <c r="C93">
+        <v>-0.1055448242460044</v>
+      </c>
+      <c r="D93">
+        <v>-0.3014888168616023</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.00436358867349247</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02290089428551974</v>
+      </c>
+      <c r="C94">
+        <v>-0.1465227492125697</v>
+      </c>
+      <c r="D94">
+        <v>0.05394958323667556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004643796436174182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01658085798732403</v>
+      </c>
+      <c r="C95">
+        <v>-0.1246726804386052</v>
+      </c>
+      <c r="D95">
+        <v>0.05947029004542866</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002056370273807164</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03678927532481464</v>
+      </c>
+      <c r="C97">
+        <v>-0.2135400309642654</v>
+      </c>
+      <c r="D97">
+        <v>-0.005096818141593177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.001800115167611929</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03727006710610497</v>
+      </c>
+      <c r="C98">
+        <v>-0.2496626848295673</v>
+      </c>
+      <c r="D98">
+        <v>0.04949110034877249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9851053973231384</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9818882752084456</v>
+      </c>
+      <c r="C99">
+        <v>0.1189520824631756</v>
+      </c>
+      <c r="D99">
+        <v>-0.02698589869819888</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001118167274689369</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003514689530573466</v>
+      </c>
+      <c r="C101">
+        <v>-0.0514121086840456</v>
+      </c>
+      <c r="D101">
+        <v>0.006720774891581462</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
